--- a/PO-16032023.xlsx
+++ b/PO-16032023.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="447">
   <si>
     <t>From No. FPC05/PPC02</t>
   </si>
@@ -1341,6 +1341,9 @@
   </si>
   <si>
     <t>ไม้กวาดดอกหญ้า</t>
+  </si>
+  <si>
+    <t>น้ำดื่ม</t>
   </si>
   <si>
     <t>……………………………………</t>
@@ -8856,10 +8859,12 @@
         <v>1</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>210</v>
+        <v>441</v>
       </c>
       <c r="C450" s="5"/>
-      <c r="D450" s="3"/>
+      <c r="D450" s="3">
+        <v>0</v>
+      </c>
       <c r="E450" s="5"/>
       <c r="F450" s="5"/>
       <c r="G450" s="5"/>
@@ -8899,35 +8904,35 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F456" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F457" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F458" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
